--- a/data/trans_orig/P1801_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1801_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>433173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>407139</v>
+        <v>405850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>459333</v>
+        <v>461097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5742360925745155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5397239990220017</v>
+        <v>0.5380149385751622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6089145058434637</v>
+        <v>0.6112534229897361</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>583</v>
@@ -763,19 +763,19 @@
         <v>653090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>623783</v>
+        <v>622350</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>684124</v>
+        <v>682935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6565958806677886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.627131648016405</v>
+        <v>0.6256915916055686</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6877967823557328</v>
+        <v>0.6866011062519846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1029</v>
@@ -784,19 +784,19 @@
         <v>1086263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1049061</v>
+        <v>1042845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1125396</v>
+        <v>1124564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6210741002948691</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5998040526193638</v>
+        <v>0.5962496978712115</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6434483403722954</v>
+        <v>0.6429725884093624</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>321174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>295014</v>
+        <v>293250</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347208</v>
+        <v>348497</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4257639074254845</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3910854941565362</v>
+        <v>0.3887465770102636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4602760009779983</v>
+        <v>0.4619850614248375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -834,19 +834,19 @@
         <v>341570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>310536</v>
+        <v>311725</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>370877</v>
+        <v>372310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3434041193322114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3122032176442671</v>
+        <v>0.3133988937480154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.372868351983595</v>
+        <v>0.3743084083944312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>625</v>
@@ -855,19 +855,19 @@
         <v>662744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623611</v>
+        <v>624443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>699946</v>
+        <v>706162</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3789258997051309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3565516596277047</v>
+        <v>0.3570274115906377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4001959473806363</v>
+        <v>0.4037503021287884</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>904671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>859261</v>
+        <v>861019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>953959</v>
+        <v>954882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4356951648652994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4138254732149965</v>
+        <v>0.4146719741805342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4594324589106777</v>
+        <v>0.4598769691513458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1010</v>
@@ -980,19 +980,19 @@
         <v>1069525</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1019710</v>
+        <v>1026821</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1110702</v>
+        <v>1115817</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.537909046963124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5128549623872988</v>
+        <v>0.51643142956193</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5586191632412426</v>
+        <v>0.5611912552403991</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1863</v>
@@ -1001,19 +1001,19 @@
         <v>1974195</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1912270</v>
+        <v>1910499</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2036252</v>
+        <v>2036207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4856945785674975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4704596034218386</v>
+        <v>0.4700239714522478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5009618991098245</v>
+        <v>0.5009508032934494</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1171714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1122426</v>
+        <v>1121503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1217124</v>
+        <v>1215366</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5643048351347006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5405675410893219</v>
+        <v>0.5401230308486541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5861745267850034</v>
+        <v>0.5853280258194657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>898</v>
@@ -1051,19 +1051,19 @@
         <v>918775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>877598</v>
+        <v>872483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>968590</v>
+        <v>961479</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4620909530368759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4413808367587574</v>
+        <v>0.4388087447596009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4871450376127013</v>
+        <v>0.4835685704380699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1997</v>
@@ -1072,19 +1072,19 @@
         <v>2090490</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2028433</v>
+        <v>2028478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2152415</v>
+        <v>2154186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5143054214325026</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4990381008901755</v>
+        <v>0.4990491967065505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5295403965781613</v>
+        <v>0.5299760285477522</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>230120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204993</v>
+        <v>205529</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251648</v>
+        <v>254246</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4207817612862773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.374837033827579</v>
+        <v>0.3758175339541039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4601464229310642</v>
+        <v>0.4648974795472937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -1197,19 +1197,19 @@
         <v>295712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>272829</v>
+        <v>269182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>318280</v>
+        <v>319458</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5384993937383223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4968296440720349</v>
+        <v>0.4901884742190069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5795963315752003</v>
+        <v>0.5817432352556429</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>489</v>
@@ -1218,19 +1218,19 @@
         <v>525832</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>490383</v>
+        <v>491485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>557645</v>
+        <v>560701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4797616295054247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4474190142492425</v>
+        <v>0.4484245551618865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5087878588227969</v>
+        <v>0.5115761455586008</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>316766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295238</v>
+        <v>292640</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341893</v>
+        <v>341357</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5792182387137228</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5398535770689359</v>
+        <v>0.5351025204527063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6251629661724208</v>
+        <v>0.6241824660458962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -1268,19 +1268,19 @@
         <v>253428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>230860</v>
+        <v>229682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276311</v>
+        <v>279958</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4615006062616777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4204036684247997</v>
+        <v>0.418256764744357</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5031703559279651</v>
+        <v>0.5098115257809931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>538</v>
@@ -1289,19 +1289,19 @@
         <v>570195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>538382</v>
+        <v>535326</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>605644</v>
+        <v>604542</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5202383704945753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.491212141177203</v>
+        <v>0.4884238544413991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5525809857507575</v>
+        <v>0.5515754448381133</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>1567964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1510290</v>
+        <v>1506788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1628378</v>
+        <v>1625880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4642217688143545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4471464215647045</v>
+        <v>0.44610952170777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4821083331263306</v>
+        <v>0.4813689677985151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1872</v>
@@ -1414,19 +1414,19 @@
         <v>2018326</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1960889</v>
+        <v>1959173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2088895</v>
+        <v>2077381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5714237358260307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5551624092129092</v>
+        <v>0.5546766794863446</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.591402999629835</v>
+        <v>0.5881433637363827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3381</v>
@@ -1435,19 +1435,19 @@
         <v>3586290</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3496153</v>
+        <v>3500561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3666183</v>
+        <v>3670972</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5190211255499092</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5059762602918018</v>
+        <v>0.5066140923774159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.530583644935919</v>
+        <v>0.5312766718811598</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1809654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1749240</v>
+        <v>1751738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1867328</v>
+        <v>1870830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5357782311856455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5178916668736695</v>
+        <v>0.5186310322014849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5528535784352955</v>
+        <v>0.5538904782922299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1454</v>
@@ -1485,19 +1485,19 @@
         <v>1513774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1443205</v>
+        <v>1454719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1571211</v>
+        <v>1572927</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4285762641739693</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4085970003701652</v>
+        <v>0.4118566362636175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4448375907870908</v>
+        <v>0.4453233205136557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3160</v>
@@ -1506,19 +1506,19 @@
         <v>3323428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3243535</v>
+        <v>3238746</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3413565</v>
+        <v>3409157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4809788744500909</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4694163550640809</v>
+        <v>0.4687233281188403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4940237397081981</v>
+        <v>0.4933859076225841</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>322861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>301138</v>
+        <v>299569</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>346619</v>
+        <v>346517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5591056232251453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5214886607961242</v>
+        <v>0.5187706037796365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6002479450616626</v>
+        <v>0.6000726979025003</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>942</v>
@@ -1870,19 +1870,19 @@
         <v>526907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>503487</v>
+        <v>504224</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>546180</v>
+        <v>547369</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6418614904238547</v>
+        <v>0.6418614904238548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6133323240440516</v>
+        <v>0.6142298302380588</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6653393280432474</v>
+        <v>0.6667886376743016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1366</v>
@@ -1891,19 +1891,19 @@
         <v>849767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>815799</v>
+        <v>816152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>880009</v>
+        <v>880840</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6076871606615143</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5833954058155886</v>
+        <v>0.5836481828287536</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6293137226055244</v>
+        <v>0.6299079289695633</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>254598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230840</v>
+        <v>230942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276321</v>
+        <v>277890</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4408943767748548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3997520549383371</v>
+        <v>0.3999273020974998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4785113392038761</v>
+        <v>0.4812293962203639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>483</v>
@@ -1941,19 +1941,19 @@
         <v>293997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274724</v>
+        <v>273535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>317417</v>
+        <v>316680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3581385095761453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3346606719567526</v>
+        <v>0.3332113623256984</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3866676759559486</v>
+        <v>0.3857701697619412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>749</v>
@@ -1962,19 +1962,19 @@
         <v>548596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518354</v>
+        <v>517523</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>582564</v>
+        <v>582211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3923128393384857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3706862773944756</v>
+        <v>0.3700920710304367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4166045941844113</v>
+        <v>0.4163518171712464</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>984435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>933037</v>
+        <v>931966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1040382</v>
+        <v>1038756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4417754850175293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4187101678481289</v>
+        <v>0.4182291887115595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4668821682373765</v>
+        <v>0.466152603716667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1625</v>
@@ -2087,19 +2087,19 @@
         <v>1109857</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1067784</v>
+        <v>1066655</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1152713</v>
+        <v>1153211</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5120982665249019</v>
+        <v>0.512098266524902</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4926856936517273</v>
+        <v>0.4921646656511022</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5318725358810407</v>
+        <v>0.5321021001573625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2646</v>
@@ -2108,19 +2108,19 @@
         <v>2094292</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2026327</v>
+        <v>2027494</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2167547</v>
+        <v>2168830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4764482219064245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4609865057237817</v>
+        <v>0.4612518239201127</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4931137859490972</v>
+        <v>0.4934055118162837</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1243926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1187979</v>
+        <v>1189605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1295324</v>
+        <v>1296395</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5582245149824706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5331178317626235</v>
+        <v>0.5338473962833328</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5812898321518709</v>
+        <v>0.5817708112884404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1291</v>
@@ -2158,19 +2158,19 @@
         <v>1057416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1014560</v>
+        <v>1014062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1099489</v>
+        <v>1100618</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4879017334750982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4681274641189591</v>
+        <v>0.467897899842638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5073143063482726</v>
+        <v>0.507835334348898</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2260</v>
@@ -2179,19 +2179,19 @@
         <v>2301341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2228086</v>
+        <v>2226803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2369306</v>
+        <v>2368139</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5235517780935757</v>
+        <v>0.5235517780935756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5068862140509028</v>
+        <v>0.5065944881837163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5390134942762183</v>
+        <v>0.5387481760798873</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>380451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>348804</v>
+        <v>352101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>410156</v>
+        <v>410360</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5346509405734675</v>
+        <v>0.5346509405734674</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4901769980742099</v>
+        <v>0.4948111917856699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5763966817311135</v>
+        <v>0.5766832403100478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>635</v>
@@ -2304,19 +2304,19 @@
         <v>442280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>417638</v>
+        <v>417261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>466811</v>
+        <v>466544</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6036735720440501</v>
+        <v>0.60367357204405</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5700396170359283</v>
+        <v>0.5695244838550881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.637155297781316</v>
+        <v>0.6367911027526371</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1034</v>
@@ -2325,19 +2325,19 @@
         <v>822731</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>786933</v>
+        <v>785401</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>860916</v>
+        <v>864262</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5696655243259078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5448789713304175</v>
+        <v>0.5438178110298716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5961049688807775</v>
+        <v>0.5984220196401678</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>331136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301431</v>
+        <v>301227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>362783</v>
+        <v>359486</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4653490594265326</v>
+        <v>0.4653490594265324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4236033182688864</v>
+        <v>0.4233167596899522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5098230019257907</v>
+        <v>0.5051888082143298</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>366</v>
@@ -2375,19 +2375,19 @@
         <v>290368</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>265837</v>
+        <v>266104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315010</v>
+        <v>315387</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.39632642795595</v>
+        <v>0.3963264279559499</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.362844702218684</v>
+        <v>0.363208897247363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4299603829640716</v>
+        <v>0.4304755161449117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -2396,19 +2396,19 @@
         <v>621504</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>583319</v>
+        <v>579973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>657302</v>
+        <v>658834</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4303344756740923</v>
+        <v>0.4303344756740924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4038950311192226</v>
+        <v>0.4015779803598322</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4551210286695827</v>
+        <v>0.4561821889701282</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>1687746</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1628164</v>
+        <v>1618407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1758533</v>
+        <v>1750445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4798269001277027</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.462887652187413</v>
+        <v>0.4601135850483739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4999514266062963</v>
+        <v>0.4976521458382487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3202</v>
@@ -2521,19 +2521,19 @@
         <v>2079043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2023875</v>
+        <v>2018330</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2136330</v>
+        <v>2131025</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5587587830394047</v>
+        <v>0.5587587830394048</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5439318291600161</v>
+        <v>0.5424416152317451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5741551828031547</v>
+        <v>0.5727292328865246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5046</v>
@@ -2542,19 +2542,19 @@
         <v>3766790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3688190</v>
+        <v>3673235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3856537</v>
+        <v>3853288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5204019622844984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5095430125445233</v>
+        <v>0.5074768528821195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5328009774913868</v>
+        <v>0.53235222849068</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>1829661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1758874</v>
+        <v>1766962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1889243</v>
+        <v>1899000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5201730998722974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5000485733937037</v>
+        <v>0.5023478541617512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5371123478125869</v>
+        <v>0.5398864149516263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2140</v>
@@ -2592,19 +2592,19 @@
         <v>1641781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1584494</v>
+        <v>1589799</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1696949</v>
+        <v>1702494</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4412412169605952</v>
+        <v>0.4412412169605953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4258448171968453</v>
+        <v>0.4272707671134755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4560681708399844</v>
+        <v>0.457558384768255</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3657</v>
@@ -2613,19 +2613,19 @@
         <v>3471441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3381694</v>
+        <v>3384943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3550041</v>
+        <v>3564996</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4795980377155015</v>
+        <v>0.4795980377155016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.467199022508613</v>
+        <v>0.4676477715093201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4904569874554767</v>
+        <v>0.4925231471178806</v>
       </c>
     </row>
     <row r="15">
